--- a/data/case1/18/cost_13.xlsx
+++ b/data/case1/18/cost_13.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>149.13634070891567</v>
+        <v>149.12304769725731</v>
       </c>
       <c r="B1" s="0">
-        <v>3.2646039949715266</v>
+        <v>3.1489250578935479</v>
       </c>
       <c r="C1" s="0">
-        <v>3.5388127853881279</v>
+        <v>3.7345075016307892</v>
       </c>
     </row>
   </sheetData>
